--- a/Звіт Епизотолог/2024/03.2024  - місячний + квартальний/Швидкий звіт-03.2024.xlsx
+++ b/Звіт Епизотолог/2024/03.2024  - місячний + квартальний/Швидкий звіт-03.2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Робоче" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="268">
   <si>
     <t>Дата</t>
   </si>
@@ -1077,9 +1077,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1089,6 +1086,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:I24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I36" activeCellId="4" sqref="I8:J8 I12:J12 I14:J15 I34:J34 I36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,94 +5405,94 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>45359</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J33" si="0">COUNTIF(I:I,I2)</f>
         <v>6</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>45362</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>45362</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J4" s="2">
@@ -5504,101 +5504,101 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>45362</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>45367</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>45370</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5664,73 +5664,73 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>45360</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>125</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>45364</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>125</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="29" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5999,28 +5999,28 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="B20" s="30">
         <v>45342</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J20" s="2">
@@ -6032,28 +6032,28 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="30">
         <v>45355</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J21" s="2">
@@ -6065,193 +6065,177 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="30">
         <v>45356</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="30">
         <v>45358</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="30">
         <v>45346</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
-        <v>45353</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="B26" s="30">
         <v>45348</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+      <c r="B27" s="30">
         <v>45349</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J27" s="2">
@@ -6263,28 +6247,28 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
+      <c r="B28" s="30">
         <v>45351</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J28" s="2">
@@ -6296,28 +6280,28 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+      <c r="B29" s="30">
         <v>45354</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J29" s="2">
@@ -6329,28 +6313,28 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
+      <c r="B30" s="30">
         <v>45356</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J30" s="2">
@@ -6359,28 +6343,28 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
+      <c r="B31" s="30">
         <v>45366</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J31" s="2">
@@ -6390,28 +6374,28 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
+      <c r="B32" s="30">
         <v>45367</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J32" s="2">
@@ -6420,28 +6404,28 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14">
+      <c r="B33" s="30">
         <v>45369</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J33" s="2">
@@ -7839,14 +7823,14 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
     </row>
   </sheetData>
   <sortState ref="B2:I50">
@@ -7872,8 +7856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" activeCellId="2" sqref="I14:J20 I22:J22 I25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7921,226 +7905,226 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="23">
+      <c r="B2" s="30">
         <v>45342</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J2" s="2">
         <f>COUNTIF(I:I,I2)</f>
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23">
+      <c r="B3" s="30">
         <v>45346</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="0">COUNTIF(I:I,I3)</f>
         <v>7</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="30">
         <v>45349</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="B5" s="30">
         <v>45356</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="30">
         <v>45357</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="B7" s="30">
         <v>45357</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="30">
         <v>45363</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J8" s="2">
@@ -8152,28 +8136,28 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="B9" s="30">
         <v>45354</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="2">
@@ -8185,134 +8169,134 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+      <c r="B10" s="30">
         <v>45352</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="31" t="s">
         <v>265</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+      <c r="B11" s="30">
         <v>45352</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="31" t="s">
         <v>265</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+      <c r="B12" s="30">
         <v>45370</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="31" t="s">
         <v>265</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+      <c r="B13" s="30">
         <v>45365</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="31" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8345,7 +8329,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8378,7 +8362,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8411,7 +8395,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8911,28 +8895,28 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
+      <c r="B32" s="30">
         <v>45348</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="2">
@@ -8944,28 +8928,28 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+      <c r="B33" s="30">
         <v>45349</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J33" s="2">
@@ -8977,28 +8961,28 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
+      <c r="B34" s="30">
         <v>45353</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J34" s="2">
@@ -9010,28 +8994,28 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+      <c r="B35" s="30">
         <v>45363</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J35" s="2">
@@ -9043,28 +9027,28 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
+      <c r="B36" s="30">
         <v>45364</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="2">
@@ -9076,28 +9060,28 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+      <c r="B37" s="30">
         <v>45342</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="31" t="s">
         <v>34</v>
       </c>
       <c r="J37" s="2">
@@ -9109,28 +9093,28 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
+      <c r="B38" s="30">
         <v>45346</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="31" t="s">
         <v>34</v>
       </c>
       <c r="J38" s="2">
@@ -9142,28 +9126,28 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
+      <c r="B39" s="30">
         <v>45350</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="31" t="s">
         <v>34</v>
       </c>
       <c r="J39" s="2">
@@ -9175,28 +9159,28 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+      <c r="B40" s="30">
         <v>45357</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="31" t="s">
         <v>34</v>
       </c>
       <c r="J40" s="2">
@@ -9208,28 +9192,28 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+      <c r="B41" s="30">
         <v>45369</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="31" t="s">
         <v>34</v>
       </c>
       <c r="J41" s="2">
@@ -9241,28 +9225,28 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+      <c r="B42" s="30">
         <v>45364</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J42" s="2">
@@ -9274,28 +9258,28 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+      <c r="B43" s="30">
         <v>45365</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J43" s="2">
@@ -9307,28 +9291,28 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
+      <c r="B44" s="30">
         <v>45365</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J44" s="2">
@@ -9403,7 +9387,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9420,7 +9404,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9437,7 +9421,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K50" s="30" t="s">
+      <c r="K50" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9454,7 +9438,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K51" s="30" t="s">
+      <c r="K51" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9471,7 +9455,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="29" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9488,7 +9472,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="30" t="s">
+      <c r="K53" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9505,7 +9489,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9522,7 +9506,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="30" t="s">
+      <c r="K55" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9539,7 +9523,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="29" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9977,16 +9961,16 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
     </row>
   </sheetData>
   <sortState ref="B2:I46">
